--- a/dat/cases/hk_monthly_cases.xlsx
+++ b/dat/cases/hk_monthly_cases.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10909"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kathleensucipto/Workspace/cityu/dengue-forecast-hk/dat/cases/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB5FEE4-855C-9D46-AA2A-7C45B3EA37DC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="9700" windowWidth="14380" windowHeight="6880" tabRatio="801" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="9696" windowWidth="14376" windowHeight="6876" tabRatio="801" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="2002" sheetId="1" r:id="rId1"/>
@@ -77,7 +71,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -142,7 +136,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -200,7 +194,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -235,7 +229,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -412,33 +406,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:E201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="G199" sqref="G199"/>
+    <sheetView topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="E201" sqref="A201:E201"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.6640625" customWidth="1"/>
     <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -455,7 +449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2002</v>
       </c>
@@ -472,7 +466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2002</v>
       </c>
@@ -489,7 +483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2002</v>
       </c>
@@ -506,7 +500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2002</v>
       </c>
@@ -523,7 +517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2002</v>
       </c>
@@ -540,7 +534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2002</v>
       </c>
@@ -557,7 +551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2002</v>
       </c>
@@ -574,7 +568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2002</v>
       </c>
@@ -591,7 +585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2002</v>
       </c>
@@ -608,7 +602,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2002</v>
       </c>
@@ -625,7 +619,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2002</v>
       </c>
@@ -642,7 +636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2002</v>
       </c>
@@ -659,7 +653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2003</v>
       </c>
@@ -676,7 +670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2003</v>
       </c>
@@ -693,7 +687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2003</v>
       </c>
@@ -710,7 +704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2003</v>
       </c>
@@ -727,7 +721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2003</v>
       </c>
@@ -744,7 +738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2003</v>
       </c>
@@ -761,7 +755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2003</v>
       </c>
@@ -778,7 +772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2003</v>
       </c>
@@ -795,7 +789,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2003</v>
       </c>
@@ -812,7 +806,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2003</v>
       </c>
@@ -829,7 +823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2003</v>
       </c>
@@ -846,7 +840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2003</v>
       </c>
@@ -863,7 +857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2004</v>
       </c>
@@ -880,7 +874,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2004</v>
       </c>
@@ -897,7 +891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2004</v>
       </c>
@@ -914,7 +908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>2004</v>
       </c>
@@ -931,7 +925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2004</v>
       </c>
@@ -948,7 +942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2004</v>
       </c>
@@ -965,7 +959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2004</v>
       </c>
@@ -982,7 +976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>2004</v>
       </c>
@@ -999,7 +993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>2004</v>
       </c>
@@ -1016,7 +1010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2004</v>
       </c>
@@ -1033,7 +1027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2004</v>
       </c>
@@ -1050,7 +1044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2004</v>
       </c>
@@ -1067,7 +1061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2005</v>
       </c>
@@ -1084,7 +1078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2005</v>
       </c>
@@ -1101,7 +1095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2005</v>
       </c>
@@ -1118,7 +1112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2005</v>
       </c>
@@ -1135,7 +1129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2005</v>
       </c>
@@ -1152,7 +1146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2005</v>
       </c>
@@ -1169,7 +1163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2005</v>
       </c>
@@ -1186,7 +1180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2005</v>
       </c>
@@ -1203,7 +1197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2005</v>
       </c>
@@ -1220,7 +1214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>2005</v>
       </c>
@@ -1237,7 +1231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>2005</v>
       </c>
@@ -1254,7 +1248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>2005</v>
       </c>
@@ -1271,7 +1265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>2006</v>
       </c>
@@ -1288,7 +1282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>2006</v>
       </c>
@@ -1305,7 +1299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>2006</v>
       </c>
@@ -1322,7 +1316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>2006</v>
       </c>
@@ -1339,7 +1333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>2006</v>
       </c>
@@ -1356,7 +1350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>2006</v>
       </c>
@@ -1373,7 +1367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>2006</v>
       </c>
@@ -1390,7 +1384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>2006</v>
       </c>
@@ -1407,7 +1401,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>2006</v>
       </c>
@@ -1424,7 +1418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>2006</v>
       </c>
@@ -1441,7 +1435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>2006</v>
       </c>
@@ -1458,7 +1452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>2006</v>
       </c>
@@ -1475,7 +1469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>2007</v>
       </c>
@@ -1492,7 +1486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>2007</v>
       </c>
@@ -1509,7 +1503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>2007</v>
       </c>
@@ -1526,7 +1520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>2007</v>
       </c>
@@ -1543,7 +1537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>2007</v>
       </c>
@@ -1560,7 +1554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>2007</v>
       </c>
@@ -1577,7 +1571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>2007</v>
       </c>
@@ -1594,7 +1588,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>2007</v>
       </c>
@@ -1611,7 +1605,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>2007</v>
       </c>
@@ -1628,7 +1622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>2007</v>
       </c>
@@ -1645,7 +1639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>2007</v>
       </c>
@@ -1662,7 +1656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>2007</v>
       </c>
@@ -1679,7 +1673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>2008</v>
       </c>
@@ -1696,7 +1690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>2008</v>
       </c>
@@ -1713,7 +1707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>2008</v>
       </c>
@@ -1730,7 +1724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>2008</v>
       </c>
@@ -1747,7 +1741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>2008</v>
       </c>
@@ -1764,7 +1758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>2008</v>
       </c>
@@ -1781,7 +1775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>2008</v>
       </c>
@@ -1798,7 +1792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>2008</v>
       </c>
@@ -1815,7 +1809,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>2008</v>
       </c>
@@ -1832,7 +1826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>2008</v>
       </c>
@@ -1849,7 +1843,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>2008</v>
       </c>
@@ -1866,7 +1860,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>2008</v>
       </c>
@@ -1883,7 +1877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>2009</v>
       </c>
@@ -1900,7 +1894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>2009</v>
       </c>
@@ -1917,7 +1911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>2009</v>
       </c>
@@ -1934,7 +1928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>2009</v>
       </c>
@@ -1951,7 +1945,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>2009</v>
       </c>
@@ -1968,7 +1962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>2009</v>
       </c>
@@ -1985,7 +1979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>2009</v>
       </c>
@@ -2002,7 +1996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>2009</v>
       </c>
@@ -2019,7 +2013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>2009</v>
       </c>
@@ -2036,7 +2030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>2009</v>
       </c>
@@ -2053,7 +2047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>2009</v>
       </c>
@@ -2070,7 +2064,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>2009</v>
       </c>
@@ -2087,7 +2081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>2010</v>
       </c>
@@ -2104,7 +2098,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>2010</v>
       </c>
@@ -2121,7 +2115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>2010</v>
       </c>
@@ -2138,7 +2132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>2010</v>
       </c>
@@ -2155,7 +2149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>2010</v>
       </c>
@@ -2172,7 +2166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>2010</v>
       </c>
@@ -2189,7 +2183,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>2010</v>
       </c>
@@ -2206,7 +2200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>2010</v>
       </c>
@@ -2223,7 +2217,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>2010</v>
       </c>
@@ -2240,7 +2234,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>2010</v>
       </c>
@@ -2257,7 +2251,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>2010</v>
       </c>
@@ -2274,7 +2268,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>2010</v>
       </c>
@@ -2291,7 +2285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>2011</v>
       </c>
@@ -2308,7 +2302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>2011</v>
       </c>
@@ -2325,7 +2319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>2011</v>
       </c>
@@ -2342,7 +2336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>2011</v>
       </c>
@@ -2359,7 +2353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>2011</v>
       </c>
@@ -2376,7 +2370,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>2011</v>
       </c>
@@ -2393,7 +2387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>2011</v>
       </c>
@@ -2410,7 +2404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>2011</v>
       </c>
@@ -2427,7 +2421,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>2011</v>
       </c>
@@ -2444,7 +2438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>2011</v>
       </c>
@@ -2461,7 +2455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>2011</v>
       </c>
@@ -2478,7 +2472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>2011</v>
       </c>
@@ -2495,7 +2489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>2012</v>
       </c>
@@ -2512,7 +2506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>2012</v>
       </c>
@@ -2529,7 +2523,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>2012</v>
       </c>
@@ -2546,7 +2540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>2012</v>
       </c>
@@ -2563,7 +2557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>2012</v>
       </c>
@@ -2580,7 +2574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>2012</v>
       </c>
@@ -2597,7 +2591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>2012</v>
       </c>
@@ -2614,7 +2608,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>2012</v>
       </c>
@@ -2631,7 +2625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>2012</v>
       </c>
@@ -2648,7 +2642,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>2012</v>
       </c>
@@ -2665,7 +2659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>2012</v>
       </c>
@@ -2682,7 +2676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>2012</v>
       </c>
@@ -2699,7 +2693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>2013</v>
       </c>
@@ -2716,7 +2710,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>2013</v>
       </c>
@@ -2733,7 +2727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>2013</v>
       </c>
@@ -2750,7 +2744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>2013</v>
       </c>
@@ -2767,7 +2761,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>2013</v>
       </c>
@@ -2784,7 +2778,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>2013</v>
       </c>
@@ -2801,7 +2795,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>2013</v>
       </c>
@@ -2818,7 +2812,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>2013</v>
       </c>
@@ -2835,7 +2829,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>2013</v>
       </c>
@@ -2852,7 +2846,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>2013</v>
       </c>
@@ -2869,7 +2863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>2013</v>
       </c>
@@ -2886,7 +2880,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>2013</v>
       </c>
@@ -2903,7 +2897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>2014</v>
       </c>
@@ -2920,7 +2914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>2014</v>
       </c>
@@ -2937,7 +2931,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>2014</v>
       </c>
@@ -2954,7 +2948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>2014</v>
       </c>
@@ -2971,7 +2965,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>2014</v>
       </c>
@@ -2988,7 +2982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>2014</v>
       </c>
@@ -3005,7 +2999,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>2014</v>
       </c>
@@ -3022,7 +3016,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>2014</v>
       </c>
@@ -3039,7 +3033,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>2014</v>
       </c>
@@ -3056,7 +3050,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>2014</v>
       </c>
@@ -3073,7 +3067,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>2014</v>
       </c>
@@ -3090,7 +3084,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>2014</v>
       </c>
@@ -3107,7 +3101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>2015</v>
       </c>
@@ -3124,7 +3118,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>2015</v>
       </c>
@@ -3141,7 +3135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>2015</v>
       </c>
@@ -3158,7 +3152,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>2015</v>
       </c>
@@ -3175,7 +3169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>2015</v>
       </c>
@@ -3192,7 +3186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>2015</v>
       </c>
@@ -3209,7 +3203,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>2015</v>
       </c>
@@ -3226,7 +3220,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>2015</v>
       </c>
@@ -3243,7 +3237,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>2015</v>
       </c>
@@ -3260,7 +3254,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>2015</v>
       </c>
@@ -3277,7 +3271,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>2015</v>
       </c>
@@ -3294,7 +3288,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>2015</v>
       </c>
@@ -3311,7 +3305,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>2016</v>
       </c>
@@ -3328,7 +3322,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>2016</v>
       </c>
@@ -3345,7 +3339,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>2016</v>
       </c>
@@ -3362,7 +3356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>2016</v>
       </c>
@@ -3379,7 +3373,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>2016</v>
       </c>
@@ -3396,7 +3390,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>2016</v>
       </c>
@@ -3413,7 +3407,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>2016</v>
       </c>
@@ -3430,7 +3424,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>2016</v>
       </c>
@@ -3447,7 +3441,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>2016</v>
       </c>
@@ -3464,7 +3458,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>2016</v>
       </c>
@@ -3481,7 +3475,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>2016</v>
       </c>
@@ -3498,7 +3492,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>2016</v>
       </c>
@@ -3515,7 +3509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>2017</v>
       </c>
@@ -3532,7 +3526,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>2017</v>
       </c>
@@ -3549,7 +3543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>2017</v>
       </c>
@@ -3566,7 +3560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>2017</v>
       </c>
@@ -3583,7 +3577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>2017</v>
       </c>
@@ -3600,7 +3594,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>2017</v>
       </c>
@@ -3617,7 +3611,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>2017</v>
       </c>
@@ -3634,7 +3628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>2017</v>
       </c>
@@ -3651,7 +3645,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>2017</v>
       </c>
@@ -3668,7 +3662,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>2017</v>
       </c>
@@ -3685,7 +3679,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>2017</v>
       </c>
@@ -3702,7 +3696,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>2017</v>
       </c>
@@ -3719,7 +3713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>2018</v>
       </c>
@@ -3736,7 +3730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>2018</v>
       </c>
@@ -3753,7 +3747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>2018</v>
       </c>
@@ -3770,7 +3764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>2018</v>
       </c>
@@ -3787,7 +3781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>2018</v>
       </c>
@@ -3804,7 +3798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>2018</v>
       </c>
@@ -3821,7 +3815,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="6">
         <v>2018</v>
       </c>
@@ -3838,7 +3832,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="6">
         <v>2018</v>
       </c>
@@ -3862,22 +3856,22 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -3894,7 +3888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2011</v>
       </c>
@@ -3911,7 +3905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2011</v>
       </c>
@@ -3928,7 +3922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2011</v>
       </c>
@@ -3945,7 +3939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2011</v>
       </c>
@@ -3962,7 +3956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2011</v>
       </c>
@@ -3979,7 +3973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2011</v>
       </c>
@@ -3996,7 +3990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2011</v>
       </c>
@@ -4013,7 +4007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2011</v>
       </c>
@@ -4030,7 +4024,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2011</v>
       </c>
@@ -4047,7 +4041,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2011</v>
       </c>
@@ -4064,7 +4058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2011</v>
       </c>
@@ -4081,7 +4075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2011</v>
       </c>
@@ -4104,22 +4098,22 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -4136,7 +4130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2012</v>
       </c>
@@ -4153,7 +4147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2012</v>
       </c>
@@ -4170,7 +4164,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2012</v>
       </c>
@@ -4187,7 +4181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2012</v>
       </c>
@@ -4204,7 +4198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2012</v>
       </c>
@@ -4221,7 +4215,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2012</v>
       </c>
@@ -4238,7 +4232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2012</v>
       </c>
@@ -4255,7 +4249,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2012</v>
       </c>
@@ -4272,7 +4266,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2012</v>
       </c>
@@ -4289,7 +4283,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2012</v>
       </c>
@@ -4306,7 +4300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2012</v>
       </c>
@@ -4323,7 +4317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2012</v>
       </c>
@@ -4346,22 +4340,22 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -4378,7 +4372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2013</v>
       </c>
@@ -4395,7 +4389,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2013</v>
       </c>
@@ -4412,7 +4406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2013</v>
       </c>
@@ -4429,7 +4423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2013</v>
       </c>
@@ -4446,7 +4440,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2013</v>
       </c>
@@ -4463,7 +4457,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2013</v>
       </c>
@@ -4480,7 +4474,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2013</v>
       </c>
@@ -4497,7 +4491,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2013</v>
       </c>
@@ -4514,7 +4508,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2013</v>
       </c>
@@ -4531,7 +4525,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2013</v>
       </c>
@@ -4548,7 +4542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2013</v>
       </c>
@@ -4565,7 +4559,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2013</v>
       </c>
@@ -4588,22 +4582,22 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -4620,7 +4614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2014</v>
       </c>
@@ -4637,7 +4631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2014</v>
       </c>
@@ -4654,7 +4648,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2014</v>
       </c>
@@ -4671,7 +4665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2014</v>
       </c>
@@ -4688,7 +4682,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2014</v>
       </c>
@@ -4705,7 +4699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2014</v>
       </c>
@@ -4722,7 +4716,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2014</v>
       </c>
@@ -4739,7 +4733,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2014</v>
       </c>
@@ -4756,7 +4750,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2014</v>
       </c>
@@ -4773,7 +4767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2014</v>
       </c>
@@ -4790,7 +4784,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2014</v>
       </c>
@@ -4807,7 +4801,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2014</v>
       </c>
@@ -4830,23 +4824,23 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
@@ -4866,7 +4860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2015</v>
       </c>
@@ -4886,7 +4880,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2015</v>
       </c>
@@ -4906,7 +4900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2015</v>
       </c>
@@ -4926,7 +4920,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2015</v>
       </c>
@@ -4946,7 +4940,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2015</v>
       </c>
@@ -4966,7 +4960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -4986,7 +4980,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2015</v>
       </c>
@@ -5006,7 +5000,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2015</v>
       </c>
@@ -5026,7 +5020,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2015</v>
       </c>
@@ -5046,7 +5040,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2015</v>
       </c>
@@ -5066,7 +5060,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2015</v>
       </c>
@@ -5086,7 +5080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2015</v>
       </c>
@@ -5112,22 +5106,22 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
@@ -5144,7 +5138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2016</v>
       </c>
@@ -5161,7 +5155,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2016</v>
       </c>
@@ -5178,7 +5172,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2016</v>
       </c>
@@ -5195,7 +5189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2016</v>
       </c>
@@ -5212,7 +5206,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2016</v>
       </c>
@@ -5229,7 +5223,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2016</v>
       </c>
@@ -5246,7 +5240,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -5263,7 +5257,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2016</v>
       </c>
@@ -5280,7 +5274,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2016</v>
       </c>
@@ -5297,7 +5291,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2016</v>
       </c>
@@ -5314,7 +5308,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2016</v>
       </c>
@@ -5331,7 +5325,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2016</v>
       </c>
@@ -5354,22 +5348,22 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
@@ -5386,7 +5380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2017</v>
       </c>
@@ -5403,7 +5397,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2017</v>
       </c>
@@ -5420,7 +5414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -5437,7 +5431,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2017</v>
       </c>
@@ -5454,7 +5448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2017</v>
       </c>
@@ -5471,7 +5465,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2017</v>
       </c>
@@ -5488,7 +5482,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2017</v>
       </c>
@@ -5505,7 +5499,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -5522,7 +5516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2017</v>
       </c>
@@ -5539,7 +5533,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2017</v>
       </c>
@@ -5556,7 +5550,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2017</v>
       </c>
@@ -5573,7 +5567,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2017</v>
       </c>
@@ -5596,22 +5590,22 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
@@ -5628,7 +5622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -5645,7 +5639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2018</v>
       </c>
@@ -5662,7 +5656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -5679,7 +5673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2018</v>
       </c>
@@ -5696,7 +5690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2018</v>
       </c>
@@ -5713,7 +5707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2018</v>
       </c>
@@ -5730,7 +5724,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2018</v>
       </c>
@@ -5747,15 +5741,24 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
         <v>2018</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="6">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C9" s="6">
+        <v>11</v>
+      </c>
+      <c r="D9" s="6">
+        <v>28</v>
+      </c>
+      <c r="E9" s="6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -5763,7 +5766,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2018</v>
       </c>
@@ -5771,7 +5774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2018</v>
       </c>
@@ -5779,7 +5782,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2018</v>
       </c>
@@ -5793,22 +5796,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -5825,7 +5828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2003</v>
       </c>
@@ -5842,7 +5845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2003</v>
       </c>
@@ -5859,7 +5862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2003</v>
       </c>
@@ -5876,7 +5879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2003</v>
       </c>
@@ -5893,7 +5896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2003</v>
       </c>
@@ -5910,7 +5913,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2003</v>
       </c>
@@ -5927,7 +5930,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2003</v>
       </c>
@@ -5944,7 +5947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2003</v>
       </c>
@@ -5961,7 +5964,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2003</v>
       </c>
@@ -5978,7 +5981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2003</v>
       </c>
@@ -5995,7 +5998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2003</v>
       </c>
@@ -6012,7 +6015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2003</v>
       </c>
@@ -6035,22 +6038,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -6067,7 +6070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2004</v>
       </c>
@@ -6084,7 +6087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2004</v>
       </c>
@@ -6101,7 +6104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2004</v>
       </c>
@@ -6118,7 +6121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2004</v>
       </c>
@@ -6135,7 +6138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2004</v>
       </c>
@@ -6152,7 +6155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2004</v>
       </c>
@@ -6169,7 +6172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2004</v>
       </c>
@@ -6186,7 +6189,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2004</v>
       </c>
@@ -6203,7 +6206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2004</v>
       </c>
@@ -6220,7 +6223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2004</v>
       </c>
@@ -6237,7 +6240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2004</v>
       </c>
@@ -6254,7 +6257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2004</v>
       </c>
@@ -6277,22 +6280,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -6309,7 +6312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2005</v>
       </c>
@@ -6326,7 +6329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2005</v>
       </c>
@@ -6343,7 +6346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2005</v>
       </c>
@@ -6360,7 +6363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2005</v>
       </c>
@@ -6377,7 +6380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2005</v>
       </c>
@@ -6394,7 +6397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2005</v>
       </c>
@@ -6411,7 +6414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2005</v>
       </c>
@@ -6428,7 +6431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2005</v>
       </c>
@@ -6445,7 +6448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2005</v>
       </c>
@@ -6462,7 +6465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2005</v>
       </c>
@@ -6479,7 +6482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2005</v>
       </c>
@@ -6496,7 +6499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2005</v>
       </c>
@@ -6519,22 +6522,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -6551,7 +6554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2006</v>
       </c>
@@ -6568,7 +6571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2006</v>
       </c>
@@ -6585,7 +6588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2006</v>
       </c>
@@ -6602,7 +6605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2006</v>
       </c>
@@ -6619,7 +6622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2006</v>
       </c>
@@ -6636,7 +6639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2006</v>
       </c>
@@ -6653,7 +6656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2006</v>
       </c>
@@ -6670,7 +6673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2006</v>
       </c>
@@ -6687,7 +6690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2006</v>
       </c>
@@ -6704,7 +6707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2006</v>
       </c>
@@ -6721,7 +6724,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2006</v>
       </c>
@@ -6738,7 +6741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2006</v>
       </c>
@@ -6761,22 +6764,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6796,7 +6799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2007</v>
       </c>
@@ -6816,7 +6819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2007</v>
       </c>
@@ -6836,7 +6839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2007</v>
       </c>
@@ -6856,7 +6859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2007</v>
       </c>
@@ -6876,7 +6879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2007</v>
       </c>
@@ -6896,7 +6899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2007</v>
       </c>
@@ -6916,7 +6919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2007</v>
       </c>
@@ -6936,7 +6939,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2007</v>
       </c>
@@ -6956,7 +6959,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2007</v>
       </c>
@@ -6976,7 +6979,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2007</v>
       </c>
@@ -6996,7 +6999,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2007</v>
       </c>
@@ -7016,7 +7019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2007</v>
       </c>
@@ -7042,22 +7045,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -7074,7 +7077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2008</v>
       </c>
@@ -7091,7 +7094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2008</v>
       </c>
@@ -7108,7 +7111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2008</v>
       </c>
@@ -7125,7 +7128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2008</v>
       </c>
@@ -7142,7 +7145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2008</v>
       </c>
@@ -7159,7 +7162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2008</v>
       </c>
@@ -7176,7 +7179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2008</v>
       </c>
@@ -7193,7 +7196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2008</v>
       </c>
@@ -7210,7 +7213,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2008</v>
       </c>
@@ -7227,7 +7230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2008</v>
       </c>
@@ -7244,7 +7247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2008</v>
       </c>
@@ -7261,7 +7264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2008</v>
       </c>
@@ -7284,22 +7287,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -7316,7 +7319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2009</v>
       </c>
@@ -7333,7 +7336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2009</v>
       </c>
@@ -7350,7 +7353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2009</v>
       </c>
@@ -7367,7 +7370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2009</v>
       </c>
@@ -7384,7 +7387,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2009</v>
       </c>
@@ -7401,7 +7404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2009</v>
       </c>
@@ -7418,7 +7421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2009</v>
       </c>
@@ -7435,7 +7438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2009</v>
       </c>
@@ -7452,7 +7455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2009</v>
       </c>
@@ -7469,7 +7472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2009</v>
       </c>
@@ -7486,7 +7489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2009</v>
       </c>
@@ -7503,7 +7506,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2009</v>
       </c>
@@ -7526,22 +7529,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -7558,7 +7561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2010</v>
       </c>
@@ -7575,7 +7578,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2010</v>
       </c>
@@ -7592,7 +7595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2010</v>
       </c>
@@ -7609,7 +7612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2010</v>
       </c>
@@ -7626,7 +7629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2010</v>
       </c>
@@ -7643,7 +7646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2010</v>
       </c>
@@ -7660,7 +7663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2010</v>
       </c>
@@ -7677,7 +7680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2010</v>
       </c>
@@ -7694,7 +7697,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2010</v>
       </c>
@@ -7711,7 +7714,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2010</v>
       </c>
@@ -7728,7 +7731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2010</v>
       </c>
@@ -7745,7 +7748,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2010</v>
       </c>
